--- a/Route1_Shanghai_Rotterdam.xlsx
+++ b/Route1_Shanghai_Rotterdam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydocs.msc.com/personal/jegadeesan_rameshbabu_msc_com/Documents/Technix24/Safe-Seas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{22A35CC2-021E-424D-BA9E-2FDCC344F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D54B101-7B06-4D36-8CC9-E7C5789966EA}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{22A35CC2-021E-424D-BA9E-2FDCC344F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ABDF586-E9F7-473E-9FEB-424F944F5FB9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E1FAAC5-D8CC-44DC-8B07-4CD65077567D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E1FAAC5-D8CC-44DC-8B07-4CD65077567D}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Rotterdam</t>
   </si>
@@ -162,13 +162,13 @@
     <t>Incident_Date</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Shanghai,Busan,Hong Kong,Singapore,Colombo,Salalah,Jeddah,Port Said,Piraeus,Valencia,Rotterdam</t>
   </si>
   <si>
     <t>[31.2304, 121.4737],[35.1796 , 129.0756],[22.3193 , 114.1694],[1.3521 , 103.8198],[6.9271 , 79.8612 ],[17.0151 , 54.0924],[21.4858 , 39.1925],[31.2653 , 32.3019],[37.9420 , 23.6462],[39.4699 , 0.3763 ],[51.9225 , 4.4791]</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -546,23 +546,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDA8AEA-CDC4-44D4-AFAF-47C328DE7469}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="103" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="199.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="181.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -609,7 +616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,41 +626,41 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -669,19 +676,19 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -701,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -721,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -741,7 +748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -761,7 +768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -781,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -801,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -821,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -841,7 +848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -861,7 +868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -881,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -901,25 +908,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
     </row>
   </sheetData>
